--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32947.0588309372</v>
+        <v>6556464.7073565</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32947.0588309372</v>
+        <v>6556464.7073565</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9917.195812097842</v>
+        <v>596804.7795193936</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9917.195812097842</v>
+        <v>596804.7795193936</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036548246.910083</v>
+        <v>42994089.9824542</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9826.906730417775</v>
+        <v>1078019.597901461</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18277.94996640059</v>
+        <v>1928099.100125962</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26728.9932023834</v>
+        <v>2778178.602350464</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35622.10948346208</v>
+        <v>3599976.272482922</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44515.22576454075</v>
+        <v>4421773.942615381</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53078.5195430383</v>
+        <v>5271885.813329493</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61641.65066580917</v>
+        <v>6121965.31555399</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70204.78178857836</v>
+        <v>6972044.817778487</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78931.280654381</v>
+        <v>7791704.497734931</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87690.01490318072</v>
+        <v>8617779.018908408</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96285.38140895097</v>
+        <v>9474273.362349791</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104848.5125317218</v>
+        <v>10324352.8645743</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113411.6436544926</v>
+        <v>11174432.36679881</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>122304.597279842</v>
+        <v>11996197.66844179</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131197.7135609206</v>
+        <v>12817995.33857426</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
@@ -27055,7 +27055,7 @@
         <v>74</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>1.176974233451553e-11</v>
